--- a/medicine/Pharmacie/Bernard_Belleau/Bernard_Belleau.xlsx
+++ b/medicine/Pharmacie/Bernard_Belleau/Bernard_Belleau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Belleau,  MSRC, O.C. (15 mars 1925 à Montréal - 4 septembre 1989 (à 64 ans) dans la même ville) était un biochimiste québécois.
 On lui doit la découverte du butorphanol, un puissant analgésique narcotique et de la lamivudine, un agent antirétroviral.
@@ -512,7 +524,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1950 - Doctorat en biochimie de l'Université McGill
 1961 - Fondateur du Laboratoire de recherche Bristol-Myers du Canada
